--- a/codigo/repaso_matricial/general_2D/torre_electrica.xlsx
+++ b/codigo/repaso_matricial/general_2D/torre_electrica.xlsx
@@ -14,7 +14,8 @@
     <sheet name="carga_distr" sheetId="4" state="visible" r:id="rId5"/>
     <sheet name="carga_punt" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="prop_mat" sheetId="6" state="visible" r:id="rId7"/>
-    <sheet name="varios" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="config" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="varios" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName function="false" hidden="false" name="ang1" vbProcedure="false">varios!$B$1</definedName>
@@ -129,6 +130,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">kN/m</t>
         </r>
@@ -141,6 +143,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">kN/m</t>
         </r>
@@ -153,6 +156,7 @@
             <sz val="10"/>
             <rFont val="Arial"/>
             <family val="2"/>
+            <charset val="1"/>
           </rPr>
           <t xml:space="preserve">kN/m</t>
         </r>
@@ -262,7 +266,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -325,6 +329,36 @@
   </si>
   <si>
     <t xml:space="preserve">rho</t>
+  </si>
+  <si>
+    <t xml:space="preserve">variable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">valor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esc_def</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esc_faxial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esc_V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">esc_M</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_FUER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">U_LONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">m</t>
   </si>
   <si>
     <t xml:space="preserve">ang1 = </t>
@@ -365,7 +399,7 @@
     <numFmt numFmtId="167" formatCode="0.00E+00"/>
     <numFmt numFmtId="168" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -393,11 +427,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -449,7 +478,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -470,7 +499,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -479,6 +508,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -509,9 +542,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -521,7 +554,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10029600" cy="9518760"/>
+          <a:ext cx="10059480" cy="9518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -554,9 +587,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>105840</xdr:rowOff>
+      <xdr:rowOff>105120</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -566,7 +599,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10029600" cy="9518760"/>
+          <a:ext cx="10059480" cy="9518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -604,9 +637,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>687960</xdr:colOff>
+      <xdr:colOff>687240</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -616,7 +649,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10001520" cy="9518760"/>
+          <a:ext cx="10026360" cy="9518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -649,9 +682,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>687960</xdr:colOff>
+      <xdr:colOff>687240</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>123480</xdr:rowOff>
+      <xdr:rowOff>122760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -661,7 +694,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10001520" cy="9518760"/>
+          <a:ext cx="10026360" cy="9518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -699,9 +732,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -711,7 +744,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10029600" cy="9518760"/>
+          <a:ext cx="10059480" cy="9518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -744,9 +777,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -756,7 +789,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10029600" cy="9518760"/>
+          <a:ext cx="10059480" cy="9518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -789,9 +822,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -801,7 +834,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10029600" cy="9518760"/>
+          <a:ext cx="10059480" cy="9518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -834,9 +867,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>90360</xdr:rowOff>
+      <xdr:rowOff>89640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -846,7 +879,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10029600" cy="9518760"/>
+          <a:ext cx="10059480" cy="9518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -884,9 +917,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -896,7 +929,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10029600" cy="9518760"/>
+          <a:ext cx="10059480" cy="9518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -929,9 +962,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>288000</xdr:colOff>
+      <xdr:colOff>287280</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>126720</xdr:rowOff>
+      <xdr:rowOff>126000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -941,7 +974,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10029600" cy="9518760"/>
+          <a:ext cx="10059480" cy="9518040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -979,7 +1012,7 @@
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1224,7 +1257,7 @@
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.92"/>
   </cols>
@@ -1591,7 +1624,7 @@
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.01"/>
   </cols>
@@ -1681,7 +1714,7 @@
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2035,7 +2068,7 @@
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2107,7 +2140,7 @@
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
@@ -2167,36 +2200,116 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="0" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="0" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="0" t="n">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="0" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="0" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.7578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="B1" s="0" t="n">
         <f aca="false">ATAN2(2,3)</f>
         <v>0.982793723247329</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D1" s="9" t="n">
         <f aca="false">DEGREES(B1)</f>
         <v>56.3099324740202</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2209,18 +2322,18 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>25</v>
+        <v>35</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2228,13 +2341,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>29</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/codigo/repaso_matricial/general_2D/torre_electrica.xlsx
+++ b/codigo/repaso_matricial/general_2D/torre_electrica.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="xnod" sheetId="1" state="visible" r:id="rId2"/>
@@ -96,6 +96,19 @@
             <charset val="1"/>
           </rPr>
           <t xml:space="preserve">m</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">grados</t>
         </r>
       </text>
     </comment>
@@ -266,7 +279,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="41">
   <si>
     <t xml:space="preserve">nodo</t>
   </si>
@@ -302,6 +315,9 @@
   </si>
   <si>
     <t xml:space="preserve">desplazamiento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotación</t>
   </si>
   <si>
     <t xml:space="preserve">b1</t>
@@ -542,9 +558,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -554,7 +570,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10059480" cy="9518040"/>
+          <a:ext cx="10074240" cy="9517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -587,9 +603,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>105120</xdr:rowOff>
+      <xdr:rowOff>104760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -599,7 +615,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10059480" cy="9518040"/>
+          <a:ext cx="10074240" cy="9517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -637,9 +653,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>687240</xdr:colOff>
+      <xdr:colOff>686880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -649,7 +665,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10026360" cy="9518040"/>
+          <a:ext cx="10038600" cy="9517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -682,9 +698,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>687240</xdr:colOff>
+      <xdr:colOff>686880</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>122760</xdr:rowOff>
+      <xdr:rowOff>121680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -694,7 +710,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10026360" cy="9518040"/>
+          <a:ext cx="10038600" cy="9517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -732,9 +748,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -744,7 +760,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10059480" cy="9518040"/>
+          <a:ext cx="10074240" cy="9517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -777,9 +793,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -789,7 +805,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10059480" cy="9518040"/>
+          <a:ext cx="10074240" cy="9517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -822,9 +838,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -834,7 +850,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10059480" cy="9518040"/>
+          <a:ext cx="10074240" cy="9517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -867,9 +883,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>58</xdr:row>
-      <xdr:rowOff>89640</xdr:rowOff>
+      <xdr:rowOff>89280</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -879,7 +895,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10059480" cy="9518040"/>
+          <a:ext cx="10074240" cy="9517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -917,9 +933,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -929,7 +945,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10059480" cy="9518040"/>
+          <a:ext cx="10074240" cy="9517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -962,9 +978,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>287280</xdr:colOff>
+      <xdr:colOff>286920</xdr:colOff>
       <xdr:row>57</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>125640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -974,7 +990,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="27000" y="0"/>
-          <a:ext cx="10059480" cy="9518040"/>
+          <a:ext cx="10074240" cy="9517680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1008,11 +1024,11 @@
   </sheetPr>
   <dimension ref="A1:C31"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -1253,11 +1269,11 @@
   </sheetPr>
   <dimension ref="A1:E19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="10.92"/>
   </cols>
@@ -1618,18 +1634,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17.01"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,6 +1655,9 @@
       <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
@@ -1649,6 +1668,9 @@
         <v>1</v>
       </c>
       <c r="C2" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1663,6 +1685,9 @@
       <c r="C3" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="D3" s="0" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1672,6 +1697,9 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1683,6 +1711,9 @@
         <v>2</v>
       </c>
       <c r="C5" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1710,27 +1741,27 @@
   </sheetPr>
   <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="G17" activeCellId="0" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F1" s="1"/>
     </row>
@@ -2064,11 +2095,11 @@
   </sheetPr>
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
@@ -2078,7 +2109,7 @@
         <v>10</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2136,27 +2167,27 @@
   </sheetPr>
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E20" activeCellId="0" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F1" s="5"/>
     </row>
@@ -2202,23 +2233,23 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="F25" activeCellId="0" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B1" s="5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B2" s="0" t="n">
         <v>50</v>
@@ -2226,7 +2257,7 @@
     </row>
     <row r="3" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>0.005</v>
@@ -2234,7 +2265,7 @@
     </row>
     <row r="4" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B4" s="0" t="n">
         <v>0.005</v>
@@ -2242,7 +2273,7 @@
     </row>
     <row r="5" customFormat="false" ht="13.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>0.01</v>
@@ -2250,18 +2281,18 @@
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -2282,34 +2313,34 @@
   </sheetPr>
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D21" activeCellId="0" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.78515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.8046875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B1" s="0" t="n">
         <f aca="false">ATAN2(2,3)</f>
         <v>0.982793723247329</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D1" s="9" t="n">
         <f aca="false">DEGREES(B1)</f>
         <v>56.3099324740202</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2322,18 +2353,18 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C6" s="0" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2341,13 +2372,13 @@
         <v>9</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C8" s="0" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
